--- a/ph_distr_direct_70deg.xlsx
+++ b/ph_distr_direct_70deg.xlsx
@@ -1,37 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +49,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,65 +365,819 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n">
+    <row r="1" spans="1:2">
+      <c r="B1" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:2">
+      <c r="A2" s="1">
         <v>-0.4875</v>
       </c>
-      <c r="B2" t="n">
-        <v>-524.981806924318</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>-0.24375</v>
-      </c>
-      <c r="B3" t="n">
-        <v>-462.5748568349735</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-400.1679067456292</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>0.24375</v>
-      </c>
-      <c r="B5" t="n">
-        <v>-337.7609566562849</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="B2">
+        <v>-801.8693429468899</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
+        <v>-0.4776515151515152</v>
+      </c>
+      <c r="B3">
+        <v>-799.5435420479023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
+        <v>-0.4678030303030303</v>
+      </c>
+      <c r="B4">
+        <v>-797.2157289403037</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
+        <v>-0.4579545454545455</v>
+      </c>
+      <c r="B5">
+        <v>-794.8839216712445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
+        <v>-0.4481060606060606</v>
+      </c>
+      <c r="B6">
+        <v>-792.5538618405167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
+        <v>-0.4382575757575758</v>
+      </c>
+      <c r="B7">
+        <v>-790.2272570693578</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
+        <v>-0.428409090909091</v>
+      </c>
+      <c r="B8">
+        <v>-787.9040036072739</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
+        <v>-0.4185606060606061</v>
+      </c>
+      <c r="B9">
+        <v>-785.5840393409596</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
+        <v>-0.4087121212121212</v>
+      </c>
+      <c r="B10">
+        <v>-783.267056310553</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1">
+        <v>-0.3988636363636364</v>
+      </c>
+      <c r="B11">
+        <v>-780.9797872452295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1">
+        <v>-0.3890151515151515</v>
+      </c>
+      <c r="B12">
+        <v>-778.7272889425178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1">
+        <v>-0.3791666666666667</v>
+      </c>
+      <c r="B13">
+        <v>-776.49143232695</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1">
+        <v>-0.3693181818181819</v>
+      </c>
+      <c r="B14">
+        <v>-774.2589085723573</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1">
+        <v>-0.359469696969697</v>
+      </c>
+      <c r="B15">
+        <v>-772.0297547006579</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1">
+        <v>-0.3496212121212122</v>
+      </c>
+      <c r="B16">
+        <v>-769.7981911908457</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1">
+        <v>-0.3397727272727273</v>
+      </c>
+      <c r="B17">
+        <v>-767.5576705572458</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1">
+        <v>-0.3299242424242425</v>
+      </c>
+      <c r="B18">
+        <v>-765.3104123062205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1">
+        <v>-0.3200757575757576</v>
+      </c>
+      <c r="B19">
+        <v>-763.0656674424847</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1">
+        <v>-0.3102272727272727</v>
+      </c>
+      <c r="B20">
+        <v>-760.8233301118603</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1">
+        <v>-0.3003787878787879</v>
+      </c>
+      <c r="B21">
+        <v>-758.5832962558493</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1">
+        <v>-0.290530303030303</v>
+      </c>
+      <c r="B22">
+        <v>-756.3454374507712</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1">
+        <v>-0.2806818181818182</v>
+      </c>
+      <c r="B23">
+        <v>-754.1151780963647</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1">
+        <v>-0.2708333333333334</v>
+      </c>
+      <c r="B24">
+        <v>-751.934630332284</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1">
+        <v>-0.2609848484848485</v>
+      </c>
+      <c r="B25">
+        <v>-749.7820481712373</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1">
+        <v>-0.2511363636363637</v>
+      </c>
+      <c r="B26">
+        <v>-747.6249632584349</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1">
+        <v>-0.2412878787878788</v>
+      </c>
+      <c r="B27">
+        <v>-745.4524440965614</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1">
+        <v>-0.2314393939393939</v>
+      </c>
+      <c r="B28">
+        <v>-743.2736777613375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1">
+        <v>-0.2215909090909091</v>
+      </c>
+      <c r="B29">
+        <v>-741.0965119874568</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1">
+        <v>-0.2117424242424243</v>
+      </c>
+      <c r="B30">
+        <v>-738.9208762526915</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1">
+        <v>-0.2018939393939394</v>
+      </c>
+      <c r="B31">
+        <v>-736.7467016228137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1">
+        <v>-0.1920454545454546</v>
+      </c>
+      <c r="B32">
+        <v>-734.5739212516075</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1">
+        <v>-0.1821969696969697</v>
+      </c>
+      <c r="B33">
+        <v>-732.4024779887442</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1">
+        <v>-0.1723484848484849</v>
+      </c>
+      <c r="B34">
+        <v>-730.248817523033</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1">
+        <v>-0.1625</v>
+      </c>
+      <c r="B35">
+        <v>-728.1340966923688</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1">
+        <v>-0.1526515151515151</v>
+      </c>
+      <c r="B36">
+        <v>-726.0108943538816</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1">
+        <v>-0.1428030303030303</v>
+      </c>
+      <c r="B37">
+        <v>-723.8886811328983</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1">
+        <v>-0.1329545454545454</v>
+      </c>
+      <c r="B38">
+        <v>-721.7674246353635</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1">
+        <v>-0.1231060606060606</v>
+      </c>
+      <c r="B39">
+        <v>-719.6470920707086</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1">
+        <v>-0.1132575757575758</v>
+      </c>
+      <c r="B40">
+        <v>-717.527651935355</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1">
+        <v>-0.1034090909090909</v>
+      </c>
+      <c r="B41">
+        <v>-715.4090739421266</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1">
+        <v>-0.09356060606060607</v>
+      </c>
+      <c r="B42">
+        <v>-713.2894098278855</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1">
+        <v>-0.08371212121212124</v>
+      </c>
+      <c r="B43">
+        <v>-711.1496722725076</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1">
+        <v>-0.07386363636363635</v>
+      </c>
+      <c r="B44">
+        <v>-709.0162060125988</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1">
+        <v>-0.06401515151515152</v>
+      </c>
+      <c r="B45">
+        <v>-706.9338556152276</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1">
+        <v>-0.0541666666666667</v>
+      </c>
+      <c r="B46">
+        <v>-704.8584261832896</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1">
+        <v>-0.04431818181818181</v>
+      </c>
+      <c r="B47">
+        <v>-702.7835744000258</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1">
+        <v>-0.03446969696969698</v>
+      </c>
+      <c r="B48">
+        <v>-700.7092910995789</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1">
+        <v>-0.0246212121212121</v>
+      </c>
+      <c r="B49">
+        <v>-698.6355687288406</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1">
+        <v>-0.01477272727272727</v>
+      </c>
+      <c r="B50">
+        <v>-696.5450160397054</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1">
+        <v>-0.004924242424242442</v>
+      </c>
+      <c r="B51">
+        <v>-694.437871635203</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1">
+        <v>0.004924242424242442</v>
+      </c>
+      <c r="B52">
+        <v>-692.3311063399771</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1">
+        <v>0.01477272727272727</v>
+      </c>
+      <c r="B53">
+        <v>-690.2247168431663</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1">
+        <v>0.02462121212121215</v>
+      </c>
+      <c r="B54">
+        <v>-688.1505899287845</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1">
+        <v>0.03446969696969693</v>
+      </c>
+      <c r="B55">
+        <v>-686.1132657194328</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1">
+        <v>0.04431818181818181</v>
+      </c>
+      <c r="B56">
+        <v>-684.0763190128142</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1">
+        <v>0.0541666666666667</v>
+      </c>
+      <c r="B57">
+        <v>-682.0214953127326</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1">
+        <v>0.06401515151515147</v>
+      </c>
+      <c r="B58">
+        <v>-679.9510573480768</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1">
+        <v>0.07386363636363635</v>
+      </c>
+      <c r="B59">
+        <v>-677.8809030491201</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1">
+        <v>0.08371212121212124</v>
+      </c>
+      <c r="B60">
+        <v>-675.8110361496817</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1">
+        <v>0.09356060606060612</v>
+      </c>
+      <c r="B61">
+        <v>-673.7414603099157</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1">
+        <v>0.1034090909090909</v>
+      </c>
+      <c r="B62">
+        <v>-671.6721797430088</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1">
+        <v>0.1132575757575758</v>
+      </c>
+      <c r="B63">
+        <v>-669.603647314838</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1">
+        <v>0.1231060606060607</v>
+      </c>
+      <c r="B64">
+        <v>-667.5598372980282</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1">
+        <v>0.1329545454545454</v>
+      </c>
+      <c r="B65">
+        <v>-665.5200857753258</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1">
+        <v>0.1428030303030303</v>
+      </c>
+      <c r="B66">
+        <v>-663.4805687483386</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1">
+        <v>0.1526515151515152</v>
+      </c>
+      <c r="B67">
+        <v>-661.4412954718819</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1">
+        <v>0.1625</v>
+      </c>
+      <c r="B68">
+        <v>-659.4022751706923</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1">
+        <v>0.1723484848484849</v>
+      </c>
+      <c r="B69">
+        <v>-657.3635172301409</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1">
+        <v>0.1821969696969697</v>
+      </c>
+      <c r="B70">
+        <v>-655.3189934100626</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1">
+        <v>0.1920454545454545</v>
+      </c>
+      <c r="B71">
+        <v>-653.2539818972245</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1">
+        <v>0.2018939393939394</v>
+      </c>
+      <c r="B72">
+        <v>-651.1850965359624</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1">
+        <v>0.2117424242424243</v>
+      </c>
+      <c r="B73">
+        <v>-649.1215019409751</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1">
+        <v>0.2215909090909092</v>
+      </c>
+      <c r="B74">
+        <v>-647.0984941880245</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1">
+        <v>0.2314393939393939</v>
+      </c>
+      <c r="B75">
+        <v>-645.0845543717912</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1">
+        <v>0.2412878787878788</v>
+      </c>
+      <c r="B76">
+        <v>-643.0708581616587</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1">
+        <v>0.2511363636363637</v>
+      </c>
+      <c r="B77">
+        <v>-641.0446029724199</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1">
+        <v>0.2609848484848485</v>
+      </c>
+      <c r="B78">
+        <v>-639.0019637005391</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1">
+        <v>0.2708333333333334</v>
+      </c>
+      <c r="B79">
+        <v>-636.959501184705</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1">
+        <v>0.2806818181818183</v>
+      </c>
+      <c r="B80">
+        <v>-634.9172241711922</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1">
+        <v>0.290530303030303</v>
+      </c>
+      <c r="B81">
+        <v>-632.8751408527551</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1">
+        <v>0.3003787878787879</v>
+      </c>
+      <c r="B82">
+        <v>-630.8332595141571</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1">
+        <v>0.3102272727272728</v>
+      </c>
+      <c r="B83">
+        <v>-628.7906012336974</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1">
+        <v>0.3200757575757576</v>
+      </c>
+      <c r="B84">
+        <v>-626.766049698884</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="1">
+        <v>0.3299242424242425</v>
+      </c>
+      <c r="B85">
+        <v>-624.7452176234603</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1">
+        <v>0.3397727272727273</v>
+      </c>
+      <c r="B86">
+        <v>-622.7245603537658</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="1">
+        <v>0.3496212121212121</v>
+      </c>
+      <c r="B87">
+        <v>-620.7040863447903</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="1">
+        <v>0.359469696969697</v>
+      </c>
+      <c r="B88">
+        <v>-618.6838040938677</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="1">
+        <v>0.3693181818181819</v>
+      </c>
+      <c r="B89">
+        <v>-616.6637221805688</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1">
+        <v>0.3791666666666667</v>
+      </c>
+      <c r="B90">
+        <v>-614.6371687856132</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="1">
+        <v>0.3890151515151515</v>
+      </c>
+      <c r="B91">
+        <v>-612.5932062797617</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1">
+        <v>0.3988636363636364</v>
+      </c>
+      <c r="B92">
+        <v>-610.5480907478045</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="1">
+        <v>0.4087121212121213</v>
+      </c>
+      <c r="B93">
+        <v>-608.5031247196421</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="1">
+        <v>0.4185606060606061</v>
+      </c>
+      <c r="B94">
+        <v>-606.4714565631515</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="1">
+        <v>0.428409090909091</v>
+      </c>
+      <c r="B95">
+        <v>-604.4688937887754</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="1">
+        <v>0.4382575757575758</v>
+      </c>
+      <c r="B96">
+        <v>-602.4665167745745</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="1">
+        <v>0.4481060606060606</v>
+      </c>
+      <c r="B97">
+        <v>-600.4506558261116</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="1">
+        <v>0.4579545454545455</v>
+      </c>
+      <c r="B98">
+        <v>-598.4247656888097</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="1">
+        <v>0.4678030303030304</v>
+      </c>
+      <c r="B99">
+        <v>-596.3990225324224</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="1">
+        <v>0.4776515151515152</v>
+      </c>
+      <c r="B100">
+        <v>-594.373432863611</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="1">
         <v>0.4875</v>
       </c>
-      <c r="B6" t="n">
-        <v>-275.3540065669405</v>
+      <c r="B101">
+        <v>-592.3480029307956</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>